--- a/examples/databases/dtocean-logistics/ouputs_electrical.xlsx
+++ b/examples/databases/dtocean-logistics/ouputs_electrical.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wazec\Dropbox\WavEC - Offshore Renewables\01 - Projectos\10 - DTOcean\DTocean\2. Working documents\WP5\DTOcean_WP5_dropbox\BitBucket_WavEC\examples\databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtopper\Programming\Python\git\dtocean-maintenance\examples\databases\dtocean-logistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="25610" windowHeight="15470" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="collection point" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="external protection" sheetId="6" r:id="rId6"/>
     <sheet name="layout" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="81">
   <si>
     <t>id [-]</t>
   </si>
@@ -194,9 +194,6 @@
     <t>static cable</t>
   </si>
   <si>
-    <t>j-tube</t>
-  </si>
-  <si>
     <t>splice</t>
   </si>
   <si>
@@ -270,6 +267,15 @@
   </si>
   <si>
     <t>rock filter bag</t>
+  </si>
+  <si>
+    <t>Dynamic cable001</t>
+  </si>
+  <si>
+    <t>Dynamic cable002</t>
+  </si>
+  <si>
+    <t>Dynamic cable003</t>
   </si>
 </sst>
 </file>
@@ -667,28 +673,28 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="49.85546875" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="49.81640625" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
-    <col min="15" max="15" width="20.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" customWidth="1"/>
+    <col min="14" max="14" width="14.1796875" customWidth="1"/>
+    <col min="15" max="15" width="20.81640625" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" customWidth="1"/>
+    <col min="17" max="17" width="17.1796875" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +741,7 @@
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>13</v>
@@ -744,12 +750,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="7">
         <v>495100.53</v>
@@ -758,7 +764,7 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="7">
         <v>10</v>
@@ -773,11 +779,11 @@
         <v>2000</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -786,7 +792,7 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -800,7 +806,7 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="7">
         <v>10</v>
@@ -815,16 +821,16 @@
         <v>3000</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="N3" s="7">
         <v>2</v>
@@ -842,7 +848,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -856,7 +862,7 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="7">
         <v>10</v>
@@ -871,16 +877,16 @@
         <v>3000</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="N4" s="7">
         <v>3</v>
@@ -898,7 +904,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -912,7 +918,7 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7">
         <v>50</v>
@@ -927,16 +933,16 @@
         <v>30000</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="N5" s="7">
         <v>2</v>
@@ -954,7 +960,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -968,7 +974,7 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="7">
         <v>50</v>
@@ -983,16 +989,16 @@
         <v>30000</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="N6" s="7">
         <v>3</v>
@@ -1020,38 +1026,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" customWidth="1"/>
+    <col min="9" max="9" width="21.453125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.1796875" customWidth="1"/>
+    <col min="14" max="14" width="21.54296875" customWidth="1"/>
+    <col min="15" max="15" width="17.54296875" customWidth="1"/>
+    <col min="16" max="16" width="13.81640625" customWidth="1"/>
+    <col min="17" max="17" width="15.7265625" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="13.7265625" customWidth="1"/>
+    <col min="20" max="20" width="13.54296875" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" customWidth="1"/>
+    <col min="22" max="22" width="12.453125" customWidth="1"/>
+    <col min="23" max="23" width="13.26953125" customWidth="1"/>
+    <col min="24" max="24" width="11.26953125" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="70.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,9 +1135,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>0</v>
+    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B2" s="6">
         <v>50</v>
@@ -1148,7 +1155,7 @@
         <v>49</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="7">
         <v>495100.53</v>
@@ -1157,13 +1164,13 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>49</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O2" s="7">
         <v>495100.53</v>
@@ -1172,7 +1179,7 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>48</v>
@@ -1184,15 +1191,15 @@
         <v>48</v>
       </c>
       <c r="U2" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2" s="6">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
+    <row r="3" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B3" s="6">
         <v>50</v>
@@ -1210,7 +1217,7 @@
         <v>49</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" s="7">
         <v>495200.53</v>
@@ -1219,13 +1226,13 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>52</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O3" s="7">
         <v>495200.53</v>
@@ -1234,21 +1241,27 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R3" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="S3" s="6">
+        <v>1</v>
+      </c>
       <c r="T3" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="U3" s="6">
+        <v>2</v>
       </c>
       <c r="W3" s="6">
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2</v>
+    <row r="4" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="B4" s="6">
         <v>50</v>
@@ -1275,13 +1288,13 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>49</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O4" s="7">
         <v>495345.53</v>
@@ -1290,13 +1303,19 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="S4" s="6">
+        <v>1</v>
+      </c>
       <c r="T4" s="6" t="s">
         <v>47</v>
+      </c>
+      <c r="U4" s="6">
+        <v>2</v>
       </c>
       <c r="W4" s="6">
         <v>3000</v>
@@ -1316,27 +1335,27 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="6" width="11" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" customWidth="1"/>
+    <col min="17" max="17" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,15 +1405,15 @@
         <v>30</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="8">
         <v>70</v>
@@ -1423,27 +1442,27 @@
         <v>26</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="P2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="8">
         <v>100</v>
@@ -1484,15 +1503,15 @@
         <v>23</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="8">
         <v>100</v>
@@ -1533,15 +1552,15 @@
         <v>13</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="8">
         <v>70</v>
@@ -1582,15 +1601,15 @@
         <v>3</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="8">
         <v>70</v>
@@ -1631,15 +1650,15 @@
         <v>4</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="8">
         <v>70</v>
@@ -1680,15 +1699,15 @@
         <v>7</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="8">
         <v>70</v>
@@ -1729,15 +1748,15 @@
         <v>5</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="8">
         <v>70</v>
@@ -1778,15 +1797,15 @@
         <v>12</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="8">
         <v>70</v>
@@ -1827,15 +1846,15 @@
         <v>14</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="8">
         <v>70</v>
@@ -1876,15 +1895,15 @@
         <v>17</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="8">
         <v>70</v>
@@ -1925,15 +1944,15 @@
         <v>15</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="8">
         <v>70</v>
@@ -1974,15 +1993,15 @@
         <v>22</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="8">
         <v>70</v>
@@ -2023,15 +2042,15 @@
         <v>24</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="8">
         <v>70</v>
@@ -2072,15 +2091,15 @@
         <v>27</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="8">
         <v>70</v>
@@ -2121,7 +2140,7 @@
         <v>25</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2138,22 +2157,22 @@
       <selection activeCell="C15" sqref="C15:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2182,7 +2201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -2196,10 +2215,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="6">
         <v>50</v>
@@ -2208,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2222,10 +2241,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="6">
         <v>50</v>
@@ -2234,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -2248,10 +2267,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="6">
         <v>50</v>
@@ -2260,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -2274,10 +2293,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="6">
         <v>50</v>
@@ -2286,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -2300,10 +2319,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="6">
         <v>50</v>
@@ -2312,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -2326,10 +2345,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="6">
         <v>50</v>
@@ -2338,10 +2357,10 @@
         <v>1</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -2355,10 +2374,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="6">
         <v>50</v>
@@ -2367,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -2381,10 +2400,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="6">
         <v>50</v>
@@ -2393,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -2407,10 +2426,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="6">
         <v>50</v>
@@ -2419,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -2433,10 +2452,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="6">
         <v>50</v>
@@ -2445,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -2459,10 +2478,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="6">
         <v>50</v>
@@ -2471,7 +2490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -2485,10 +2504,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="6">
         <v>50</v>
@@ -2497,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -2511,10 +2530,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="6">
         <v>50</v>
@@ -2523,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -2537,10 +2556,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="6">
         <v>50</v>
@@ -2549,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -2563,10 +2582,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="6">
         <v>50</v>
@@ -2575,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -2589,10 +2608,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="6">
         <v>50</v>
@@ -2601,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -2615,10 +2634,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G18" s="6">
         <v>50</v>
@@ -2627,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -2641,10 +2660,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G19" s="6">
         <v>50</v>
@@ -2653,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -2667,10 +2686,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="6">
         <v>50</v>
@@ -2679,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -2693,10 +2712,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="6">
         <v>50</v>
@@ -2705,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -2719,10 +2738,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="6">
         <v>50</v>
@@ -2731,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -2745,10 +2764,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="6">
         <v>50</v>
@@ -2757,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -2771,10 +2790,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G24" s="6">
         <v>50</v>
@@ -2783,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -2797,10 +2816,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" s="6">
         <v>50</v>
@@ -2809,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -2823,10 +2842,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26" s="6">
         <v>50</v>
@@ -2835,7 +2854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -2849,10 +2868,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="6">
         <v>50</v>
@@ -2861,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -2875,10 +2894,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G28" s="6">
         <v>50</v>
@@ -2887,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -2901,10 +2920,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G29" s="6">
         <v>50</v>
@@ -2913,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -2927,10 +2946,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" s="6">
         <v>50</v>
@@ -2939,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -2953,10 +2972,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G31" s="6">
         <v>50</v>
@@ -2965,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -2979,10 +2998,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="6">
         <v>50</v>
@@ -2991,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -3005,10 +3024,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G33" s="6">
         <v>50</v>
@@ -3017,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -3031,10 +3050,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G34" s="6">
         <v>50</v>
@@ -3043,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -3057,10 +3076,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="6">
         <v>50</v>
@@ -3069,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -3083,10 +3102,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G36" s="6">
         <v>50</v>
@@ -3095,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -3109,10 +3128,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" s="6">
         <v>50</v>
@@ -3121,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -3135,10 +3154,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="6">
         <v>50</v>
@@ -3147,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -3161,10 +3180,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G39" s="6">
         <v>50</v>
@@ -3173,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -3187,10 +3206,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G40" s="6">
         <v>50</v>
@@ -3199,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -3213,10 +3232,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G41" s="6">
         <v>50</v>
@@ -3225,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -3239,10 +3258,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G42" s="6">
         <v>50</v>
@@ -3251,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -3265,10 +3284,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G43" s="6">
         <v>50</v>
@@ -3277,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -3291,10 +3310,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G44" s="6">
         <v>50</v>
@@ -3303,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>43</v>
       </c>
@@ -3317,10 +3336,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G45" s="6">
         <v>50</v>
@@ -3329,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>44</v>
       </c>
@@ -3343,10 +3362,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G46" s="6">
         <v>50</v>
@@ -3355,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -3369,10 +3388,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G47" s="6">
         <v>50</v>
@@ -3381,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>46</v>
       </c>
@@ -3395,10 +3414,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G48" s="6">
         <v>50</v>
@@ -3407,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>47</v>
       </c>
@@ -3421,10 +3440,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G49" s="6">
         <v>50</v>
@@ -3433,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>48</v>
       </c>
@@ -3447,10 +3466,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G50" s="6">
         <v>50</v>
@@ -3459,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>49</v>
       </c>
@@ -3473,10 +3492,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G51" s="6">
         <v>50</v>
@@ -3485,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>50</v>
       </c>
@@ -3499,10 +3518,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G52" s="6">
         <v>50</v>
@@ -3511,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>51</v>
       </c>
@@ -3525,10 +3544,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G53" s="6">
         <v>50</v>
@@ -3537,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>52</v>
       </c>
@@ -3551,10 +3570,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G54" s="6">
         <v>50</v>
@@ -3563,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>53</v>
       </c>
@@ -3577,10 +3596,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G55" s="6">
         <v>50</v>
@@ -3589,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>54</v>
       </c>
@@ -3603,10 +3622,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G56" s="6">
         <v>50</v>
@@ -3615,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>55</v>
       </c>
@@ -3629,10 +3648,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G57" s="6">
         <v>50</v>
@@ -3641,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>56</v>
       </c>
@@ -3655,10 +3674,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G58" s="6">
         <v>50</v>
@@ -3667,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>57</v>
       </c>
@@ -3681,10 +3700,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G59" s="6">
         <v>50</v>
@@ -3693,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>58</v>
       </c>
@@ -3707,10 +3726,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G60" s="6">
         <v>50</v>
@@ -3719,7 +3738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>59</v>
       </c>
@@ -3733,10 +3752,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G61" s="6">
         <v>50</v>
@@ -3745,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>60</v>
       </c>
@@ -3759,10 +3778,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G62" s="6">
         <v>50</v>
@@ -3771,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>61</v>
       </c>
@@ -3785,10 +3804,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G63" s="6">
         <v>50</v>
@@ -3797,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>62</v>
       </c>
@@ -3811,10 +3830,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G64" s="6">
         <v>50</v>
@@ -3823,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>63</v>
       </c>
@@ -3837,10 +3856,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G65" s="6">
         <v>50</v>
@@ -3849,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>64</v>
       </c>
@@ -3863,10 +3882,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G66" s="6">
         <v>50</v>
@@ -3875,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>65</v>
       </c>
@@ -3889,10 +3908,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G67" s="6">
         <v>50</v>
@@ -3901,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>66</v>
       </c>
@@ -3915,10 +3934,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G68" s="6">
         <v>50</v>
@@ -3927,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>67</v>
       </c>
@@ -3941,10 +3960,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G69" s="6">
         <v>50</v>
@@ -3953,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>68</v>
       </c>
@@ -3967,10 +3986,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G70" s="6">
         <v>50</v>
@@ -3979,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>69</v>
       </c>
@@ -3993,10 +4012,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G71" s="6">
         <v>50</v>
@@ -4005,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>70</v>
       </c>
@@ -4019,10 +4038,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G72" s="6">
         <v>50</v>
@@ -4031,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>71</v>
       </c>
@@ -4045,10 +4064,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G73" s="6">
         <v>50</v>
@@ -4057,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>72</v>
       </c>
@@ -4071,10 +4090,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G74" s="6">
         <v>50</v>
@@ -4083,7 +4102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>73</v>
       </c>
@@ -4097,10 +4116,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G75" s="6">
         <v>50</v>
@@ -4109,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>74</v>
       </c>
@@ -4123,10 +4142,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G76" s="6">
         <v>50</v>
@@ -4135,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>75</v>
       </c>
@@ -4149,10 +4168,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G77" s="6">
         <v>50</v>
@@ -4161,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>76</v>
       </c>
@@ -4175,10 +4194,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G78" s="6">
         <v>50</v>
@@ -4187,7 +4206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>77</v>
       </c>
@@ -4201,10 +4220,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G79" s="6">
         <v>50</v>
@@ -4213,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>78</v>
       </c>
@@ -4227,10 +4246,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G80" s="6">
         <v>50</v>
@@ -4239,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>79</v>
       </c>
@@ -4253,10 +4272,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G81" s="6">
         <v>50</v>
@@ -4265,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>80</v>
       </c>
@@ -4279,10 +4298,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G82" s="6">
         <v>50</v>
@@ -4291,7 +4310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>81</v>
       </c>
@@ -4305,10 +4324,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G83" s="6">
         <v>50</v>
@@ -4317,7 +4336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>82</v>
       </c>
@@ -4331,10 +4350,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G84" s="6">
         <v>50</v>
@@ -4343,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>83</v>
       </c>
@@ -4357,10 +4376,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G85" s="6">
         <v>50</v>
@@ -4369,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <v>84</v>
       </c>
@@ -4383,10 +4402,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G86" s="6">
         <v>50</v>
@@ -4395,7 +4414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>85</v>
       </c>
@@ -4409,10 +4428,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G87" s="6">
         <v>50</v>
@@ -4421,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>86</v>
       </c>
@@ -4435,10 +4454,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G88" s="6">
         <v>50</v>
@@ -4447,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>87</v>
       </c>
@@ -4461,10 +4480,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G89" s="6">
         <v>50</v>
@@ -4473,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>88</v>
       </c>
@@ -4487,10 +4506,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G90" s="6">
         <v>50</v>
@@ -4499,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>89</v>
       </c>
@@ -4513,10 +4532,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G91" s="6">
         <v>50</v>
@@ -4525,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>90</v>
       </c>
@@ -4539,10 +4558,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G92" s="6">
         <v>50</v>
@@ -4551,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>91</v>
       </c>
@@ -4565,10 +4584,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G93" s="6">
         <v>50</v>
@@ -4577,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>92</v>
       </c>
@@ -4591,10 +4610,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G94" s="6">
         <v>50</v>
@@ -4603,7 +4622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>93</v>
       </c>
@@ -4617,10 +4636,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G95" s="6">
         <v>50</v>
@@ -4629,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>94</v>
       </c>
@@ -4643,10 +4662,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G96" s="6">
         <v>50</v>
@@ -4655,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>95</v>
       </c>
@@ -4669,10 +4688,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G97" s="6">
         <v>50</v>
@@ -4681,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>96</v>
       </c>
@@ -4695,10 +4714,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G98" s="6">
         <v>50</v>
@@ -4707,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>97</v>
       </c>
@@ -4721,10 +4740,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G99" s="6">
         <v>50</v>
@@ -4733,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>98</v>
       </c>
@@ -4747,10 +4766,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G100" s="6">
         <v>50</v>
@@ -4759,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>99</v>
       </c>
@@ -4773,10 +4792,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G101" s="6">
         <v>50</v>
@@ -4785,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>100</v>
       </c>
@@ -4799,10 +4818,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G102" s="6">
         <v>50</v>
@@ -4811,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>101</v>
       </c>
@@ -4825,10 +4844,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G103" s="6">
         <v>50</v>
@@ -4837,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>102</v>
       </c>
@@ -4851,10 +4870,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G104" s="6">
         <v>50</v>
@@ -4863,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>103</v>
       </c>
@@ -4877,10 +4896,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G105" s="6">
         <v>50</v>
@@ -4889,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>104</v>
       </c>
@@ -4903,10 +4922,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G106" s="6">
         <v>50</v>
@@ -4915,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>105</v>
       </c>
@@ -4929,10 +4948,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G107" s="6">
         <v>50</v>
@@ -4941,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>106</v>
       </c>
@@ -4955,10 +4974,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G108" s="6">
         <v>50</v>
@@ -4967,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <v>107</v>
       </c>
@@ -4981,10 +5000,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G109" s="6">
         <v>50</v>
@@ -4993,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <v>108</v>
       </c>
@@ -5007,10 +5026,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G110" s="6">
         <v>50</v>
@@ -5019,7 +5038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>109</v>
       </c>
@@ -5033,10 +5052,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G111" s="6">
         <v>50</v>
@@ -5045,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>110</v>
       </c>
@@ -5059,10 +5078,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G112" s="6">
         <v>50</v>
@@ -5071,7 +5090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>111</v>
       </c>
@@ -5085,10 +5104,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G113" s="6">
         <v>50</v>
@@ -5097,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>112</v>
       </c>
@@ -5111,10 +5130,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G114" s="6">
         <v>50</v>
@@ -5123,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>113</v>
       </c>
@@ -5137,10 +5156,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G115" s="6">
         <v>50</v>
@@ -5149,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>114</v>
       </c>
@@ -5163,10 +5182,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G116" s="6">
         <v>50</v>
@@ -5175,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>115</v>
       </c>
@@ -5189,10 +5208,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G117" s="6">
         <v>50</v>
@@ -5201,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>116</v>
       </c>
@@ -5215,10 +5234,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G118" s="6">
         <v>50</v>
@@ -5227,7 +5246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>117</v>
       </c>
@@ -5241,10 +5260,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G119" s="6">
         <v>50</v>
@@ -5253,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>118</v>
       </c>
@@ -5267,10 +5286,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G120" s="6">
         <v>50</v>
@@ -5279,7 +5298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>119</v>
       </c>
@@ -5293,10 +5312,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G121" s="6">
         <v>50</v>
@@ -5305,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>120</v>
       </c>
@@ -5319,10 +5338,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G122" s="6">
         <v>50</v>
@@ -5331,7 +5350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <v>121</v>
       </c>
@@ -5345,10 +5364,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G123" s="6">
         <v>50</v>
@@ -5357,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
         <v>122</v>
       </c>
@@ -5371,10 +5390,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G124" s="6">
         <v>50</v>
@@ -5383,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>123</v>
       </c>
@@ -5397,10 +5416,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G125" s="6">
         <v>50</v>
@@ -5409,7 +5428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="6">
         <v>124</v>
       </c>
@@ -5423,10 +5442,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G126" s="6">
         <v>50</v>
@@ -5435,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>125</v>
       </c>
@@ -5449,10 +5468,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G127" s="6">
         <v>50</v>
@@ -5461,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
         <v>126</v>
       </c>
@@ -5475,10 +5494,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G128" s="6">
         <v>50</v>
@@ -5487,7 +5506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>127</v>
       </c>
@@ -5501,10 +5520,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G129" s="6">
         <v>50</v>
@@ -5513,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <v>128</v>
       </c>
@@ -5527,10 +5546,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G130" s="6">
         <v>50</v>
@@ -5539,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <v>114</v>
       </c>
@@ -5553,10 +5572,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G131" s="6">
         <v>50</v>
@@ -5565,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="6">
         <v>115</v>
       </c>
@@ -5579,10 +5598,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G132" s="6">
         <v>50</v>
@@ -5591,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="6">
         <v>116</v>
       </c>
@@ -5605,10 +5624,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G133" s="6">
         <v>50</v>
@@ -5617,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <v>117</v>
       </c>
@@ -5631,10 +5650,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G134" s="6">
         <v>50</v>
@@ -5643,7 +5662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>118</v>
       </c>
@@ -5657,10 +5676,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G135" s="6">
         <v>50</v>
@@ -5669,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
         <v>119</v>
       </c>
@@ -5683,10 +5702,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G136" s="6">
         <v>50</v>
@@ -5695,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>120</v>
       </c>
@@ -5709,10 +5728,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G137" s="6">
         <v>50</v>
@@ -5721,7 +5740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="6">
         <v>121</v>
       </c>
@@ -5735,10 +5754,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G138" s="6">
         <v>50</v>
@@ -5747,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
         <v>122</v>
       </c>
@@ -5761,10 +5780,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G139" s="6">
         <v>50</v>
@@ -5773,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
         <v>123</v>
       </c>
@@ -5787,10 +5806,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G140" s="6">
         <v>50</v>
@@ -5799,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>124</v>
       </c>
@@ -5813,10 +5832,10 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G141" s="6">
         <v>50</v>
@@ -5825,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
         <v>125</v>
       </c>
@@ -5839,10 +5858,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G142" s="6">
         <v>50</v>
@@ -5851,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>126</v>
       </c>
@@ -5865,10 +5884,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G143" s="6">
         <v>50</v>
@@ -5877,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
         <v>127</v>
       </c>
@@ -5891,10 +5910,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G144" s="6">
         <v>50</v>
@@ -5903,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>128</v>
       </c>
@@ -5917,10 +5936,10 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G145" s="6">
         <v>50</v>
@@ -5943,17 +5962,17 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="5" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
     <col min="7" max="7" width="21" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.453125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5979,7 +5998,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -5996,7 +6015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -6013,7 +6032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -6030,7 +6049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -6041,7 +6060,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -6052,29 +6071,29 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -6091,7 +6110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -6108,7 +6127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -6125,7 +6144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -6142,7 +6161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -6159,7 +6178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -6176,7 +6195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -6193,7 +6212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -6210,7 +6229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -6227,7 +6246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -6244,7 +6263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -6261,7 +6280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -6278,7 +6297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -6295,7 +6314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -6312,7 +6331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -6329,7 +6348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -6346,7 +6365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -6363,7 +6382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -6380,7 +6399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -6397,7 +6416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -6414,7 +6433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -6431,7 +6450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -6458,19 +6477,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6487,12 +6506,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="7">
         <v>495100.53</v>
@@ -6501,15 +6520,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="7">
         <v>495200.53</v>
@@ -6518,15 +6537,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="7">
         <v>495100.53</v>
@@ -6535,15 +6554,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="7">
         <v>495200.53</v>
@@ -6552,15 +6571,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="7">
         <v>495100.53</v>
@@ -6569,15 +6588,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="7">
         <v>495200.53</v>
@@ -6586,15 +6605,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="7">
         <v>495200.53</v>
@@ -6603,15 +6622,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="7">
         <v>495100.53</v>
@@ -6620,15 +6639,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="7">
         <v>495200.53</v>
@@ -6637,15 +6656,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="7">
         <v>495100.53</v>
@@ -6654,15 +6673,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="7">
         <v>495200.53</v>
@@ -6671,15 +6690,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="7">
         <v>495100.53</v>
@@ -6688,15 +6707,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="7">
         <v>495200.53</v>
@@ -6705,15 +6724,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="7">
         <v>495200.53</v>
@@ -6722,15 +6741,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="7">
         <v>495100.53</v>
@@ -6739,15 +6758,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="7">
         <v>495200.53</v>
@@ -6756,15 +6775,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="7">
         <v>495100.53</v>
@@ -6773,15 +6792,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="7">
         <v>495200.53</v>
@@ -6790,15 +6809,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="7">
         <v>495100.53</v>
@@ -6807,15 +6826,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="7">
         <v>495200.53</v>
@@ -6824,15 +6843,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="7">
         <v>495200.53</v>
@@ -6841,15 +6860,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="7">
         <v>495100.53</v>
@@ -6858,15 +6877,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="7">
         <v>495200.53</v>
@@ -6875,15 +6894,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="7">
         <v>495100.53</v>
@@ -6892,15 +6911,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="7">
         <v>495200.53</v>
@@ -6909,15 +6928,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="7">
         <v>495100.53</v>
@@ -6926,15 +6945,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="7">
         <v>495200.53</v>
@@ -6943,15 +6962,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="7">
         <v>495200.53</v>
@@ -6960,15 +6979,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="7">
         <v>495100.53</v>
@@ -6977,15 +6996,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="7">
         <v>495200.53</v>
@@ -6994,15 +7013,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="7">
         <v>495100.53</v>
@@ -7011,15 +7030,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="7">
         <v>495200.53</v>
@@ -7028,15 +7047,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="7">
         <v>495100.53</v>
@@ -7045,15 +7064,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="7">
         <v>495200.53</v>
@@ -7062,15 +7081,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="7">
         <v>495200.53</v>
@@ -7079,15 +7098,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="7">
         <v>495100.53</v>
@@ -7096,15 +7115,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="7">
         <v>495200.53</v>
@@ -7113,15 +7132,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="7">
         <v>495100.53</v>
@@ -7130,15 +7149,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="7">
         <v>495200.53</v>
@@ -7147,15 +7166,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="7">
         <v>495100.53</v>
@@ -7164,15 +7183,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="7">
         <v>495200.53</v>
@@ -7181,15 +7200,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="7">
         <v>495200.53</v>
@@ -7198,15 +7217,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="7">
         <v>495100.53</v>
@@ -7215,15 +7234,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="7">
         <v>495200.53</v>
@@ -7232,15 +7251,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="7">
         <v>495100.53</v>
@@ -7249,15 +7268,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C47" s="7">
         <v>495200.53</v>
@@ -7266,15 +7285,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="7">
         <v>495100.53</v>
@@ -7283,15 +7302,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="7">
         <v>495200.53</v>
@@ -7300,15 +7319,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="7">
         <v>495200.53</v>
@@ -7317,15 +7336,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="7">
         <v>495100.53</v>
@@ -7334,15 +7353,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="7">
         <v>495200.53</v>
@@ -7351,15 +7370,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="7">
         <v>495100.53</v>
@@ -7368,15 +7387,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="7">
         <v>495200.53</v>
@@ -7385,15 +7404,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="7">
         <v>495100.53</v>
@@ -7402,15 +7421,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="7">
         <v>495200.53</v>
@@ -7419,15 +7438,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="7">
         <v>495200.53</v>
@@ -7436,15 +7455,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="7">
         <v>495100.53</v>
@@ -7453,15 +7472,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="7">
         <v>495200.53</v>
@@ -7470,15 +7489,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="7">
         <v>495100.53</v>
@@ -7487,15 +7506,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="7">
         <v>495200.53</v>
@@ -7504,15 +7523,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="7">
         <v>495100.53</v>
@@ -7521,15 +7540,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="7">
         <v>495200.53</v>
@@ -7538,15 +7557,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="7">
         <v>495200.53</v>
@@ -7555,15 +7574,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65" s="7">
         <v>495100.53</v>
@@ -7572,15 +7591,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="7">
         <v>495200.53</v>
@@ -7589,15 +7608,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="7">
         <v>495100.53</v>
@@ -7606,15 +7625,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="7">
         <v>495200.53</v>
@@ -7623,15 +7642,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="7">
         <v>495100.53</v>
@@ -7640,15 +7659,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="7">
         <v>495200.53</v>
@@ -7657,15 +7676,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="7">
         <v>495200.53</v>
@@ -7674,15 +7693,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="7">
         <v>495100.53</v>
@@ -7691,15 +7710,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73" s="7">
         <v>495200.53</v>
@@ -7708,15 +7727,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" s="7">
         <v>495100.53</v>
@@ -7725,15 +7744,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="7">
         <v>495200.53</v>
@@ -7742,15 +7761,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" s="7">
         <v>495100.53</v>
@@ -7759,15 +7778,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C77" s="7">
         <v>495200.53</v>
@@ -7776,15 +7795,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="7">
         <v>495200.53</v>
@@ -7793,15 +7812,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="7">
         <v>495100.53</v>
@@ -7810,15 +7829,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="7">
         <v>495200.53</v>
@@ -7827,15 +7846,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C81" s="7">
         <v>495100.53</v>
@@ -7844,15 +7863,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C82" s="7">
         <v>495200.53</v>
@@ -7861,15 +7880,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" s="7">
         <v>495100.53</v>
@@ -7878,15 +7897,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C84" s="7">
         <v>495200.53</v>
@@ -7895,15 +7914,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" s="7">
         <v>495200.53</v>
@@ -7912,15 +7931,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C86" s="7">
         <v>495100.53</v>
@@ -7929,15 +7948,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C87" s="7">
         <v>495200.53</v>
@@ -7946,15 +7965,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C88" s="7">
         <v>495100.53</v>
@@ -7963,15 +7982,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C89" s="7">
         <v>495200.53</v>
@@ -7980,15 +7999,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C90" s="7">
         <v>495100.53</v>
@@ -7997,15 +8016,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C91" s="7">
         <v>495200.53</v>
@@ -8014,15 +8033,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C92" s="7">
         <v>495200.53</v>
@@ -8031,15 +8050,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C93" s="7">
         <v>495100.53</v>
@@ -8048,15 +8067,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C94" s="7">
         <v>495200.53</v>
@@ -8065,15 +8084,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C95" s="7">
         <v>495100.53</v>
@@ -8082,15 +8101,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C96" s="7">
         <v>495200.53</v>
@@ -8099,15 +8118,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C97" s="7">
         <v>495100.53</v>
@@ -8116,15 +8135,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C98" s="7">
         <v>495200.53</v>
@@ -8133,15 +8152,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C99" s="7">
         <v>495200.53</v>
@@ -8150,15 +8169,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C100" s="7">
         <v>495100.53</v>
@@ -8167,15 +8186,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C101" s="7">
         <v>495200.53</v>
@@ -8184,15 +8203,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C102" s="7">
         <v>495100.53</v>
@@ -8201,15 +8220,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C103" s="7">
         <v>495200.53</v>
@@ -8218,15 +8237,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C104" s="7">
         <v>495100.53</v>
@@ -8235,15 +8254,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C105" s="7">
         <v>495200.53</v>
@@ -8252,15 +8271,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C106" s="7">
         <v>495200.53</v>
@@ -8269,15 +8288,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C107" s="7">
         <v>495100.53</v>
@@ -8286,15 +8305,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C108" s="7">
         <v>495200.53</v>
@@ -8303,15 +8322,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <v>108</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C109" s="7">
         <v>495100.53</v>
@@ -8320,15 +8339,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C110" s="7">
         <v>495200.53</v>
@@ -8337,15 +8356,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C111" s="7">
         <v>495100.53</v>
@@ -8354,15 +8373,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C112" s="7">
         <v>495200.53</v>
@@ -8371,15 +8390,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C113" s="7">
         <v>495200.53</v>
@@ -8388,15 +8407,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C114" s="7">
         <v>495100.53</v>
@@ -8405,15 +8424,15 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C115" s="7">
         <v>495345.53</v>
@@ -8422,15 +8441,15 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C116" s="7">
         <v>495345.53</v>
@@ -8439,15 +8458,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C117" s="7">
         <v>495100.53</v>
@@ -8456,15 +8475,15 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C118" s="7">
         <v>495345.53</v>
@@ -8473,15 +8492,15 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C119" s="7">
         <v>495345.53</v>
@@ -8490,15 +8509,15 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C120" s="7">
         <v>495100.53</v>
@@ -8507,15 +8526,15 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C121" s="7">
         <v>495345.53</v>
@@ -8524,15 +8543,15 @@
         <v>5675775.0499999998</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C122" s="7">
         <v>495345.53</v>
@@ -8541,7 +8560,7 @@
         <v>5675500.0499999998</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -8558,12 +8577,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8571,7 +8590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
